--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H2">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I2">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J2">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.147926469260478</v>
+        <v>0.1544616666666667</v>
       </c>
       <c r="N2">
-        <v>0.147926469260478</v>
+        <v>0.463385</v>
       </c>
       <c r="O2">
-        <v>0.03313628864614823</v>
+        <v>0.03143355204123913</v>
       </c>
       <c r="P2">
-        <v>0.03313628864614823</v>
+        <v>0.03143355204123912</v>
       </c>
       <c r="Q2">
-        <v>0.05345187418427994</v>
+        <v>0.06087550529666668</v>
       </c>
       <c r="R2">
-        <v>0.05345187418427994</v>
+        <v>0.54787954767</v>
       </c>
       <c r="S2">
-        <v>0.001309703747578325</v>
+        <v>0.001207299316569539</v>
       </c>
       <c r="T2">
-        <v>0.001309703747578325</v>
+        <v>0.001207299316569538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H3">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I3">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J3">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.557248148624115</v>
+        <v>0.1656826666666667</v>
       </c>
       <c r="N3">
-        <v>0.557248148624115</v>
+        <v>0.497048</v>
       </c>
       <c r="O3">
-        <v>0.1248264464950207</v>
+        <v>0.03371706933757852</v>
       </c>
       <c r="P3">
-        <v>0.1248264464950207</v>
+        <v>0.03371706933757852</v>
       </c>
       <c r="Q3">
-        <v>0.2013565123171444</v>
+        <v>0.06529785849066667</v>
       </c>
       <c r="R3">
-        <v>0.2013565123171444</v>
+        <v>0.587680726416</v>
       </c>
       <c r="S3">
-        <v>0.004933734930825379</v>
+        <v>0.001295004608915386</v>
       </c>
       <c r="T3">
-        <v>0.004933734930825379</v>
+        <v>0.001295004608915385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H4">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I4">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J4">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.42267520685376</v>
+        <v>0.7030826666666666</v>
       </c>
       <c r="N4">
-        <v>1.42267520685376</v>
+        <v>2.109248</v>
       </c>
       <c r="O4">
-        <v>0.3186865510932597</v>
+        <v>0.1430800668469621</v>
       </c>
       <c r="P4">
-        <v>0.3186865510932597</v>
+        <v>0.1430800668469621</v>
       </c>
       <c r="Q4">
-        <v>0.5140706497086571</v>
+        <v>0.2770947220906667</v>
       </c>
       <c r="R4">
-        <v>0.5140706497086571</v>
+        <v>2.493852498816</v>
       </c>
       <c r="S4">
-        <v>0.01259600840416299</v>
+        <v>0.00549541670290507</v>
       </c>
       <c r="T4">
-        <v>0.01259600840416299</v>
+        <v>0.00549541670290507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H5">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I5">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J5">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.979100988134182</v>
+        <v>1.423981</v>
       </c>
       <c r="N5">
-        <v>0.979100988134182</v>
+        <v>4.271942999999999</v>
       </c>
       <c r="O5">
-        <v>0.2193236485582186</v>
+        <v>0.2897856913963705</v>
       </c>
       <c r="P5">
-        <v>0.2193236485582186</v>
+        <v>0.2897856913963705</v>
       </c>
       <c r="Q5">
-        <v>0.3537891703431261</v>
+        <v>0.5612108478339999</v>
       </c>
       <c r="R5">
-        <v>0.3537891703431261</v>
+        <v>5.050897630505999</v>
       </c>
       <c r="S5">
-        <v>0.008668713853765889</v>
+        <v>0.01113008376258192</v>
       </c>
       <c r="T5">
-        <v>0.008668713853765889</v>
+        <v>0.01113008376258192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H6">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I6">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J6">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.357232573509</v>
+        <v>1.106323</v>
       </c>
       <c r="N6">
-        <v>1.357232573509</v>
+        <v>3.318969</v>
       </c>
       <c r="O6">
-        <v>0.3040270652073528</v>
+        <v>0.2251410485552173</v>
       </c>
       <c r="P6">
-        <v>0.3040270652073528</v>
+        <v>0.2251410485552173</v>
       </c>
       <c r="Q6">
-        <v>0.4904235538148686</v>
+        <v>0.436017382822</v>
       </c>
       <c r="R6">
-        <v>0.4904235538148686</v>
+        <v>3.924156445398</v>
       </c>
       <c r="S6">
-        <v>0.01201659579077801</v>
+        <v>0.008647213451914682</v>
       </c>
       <c r="T6">
-        <v>0.01201659579077801</v>
+        <v>0.00864721345191468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.48840061180772</v>
+        <v>0.394114</v>
       </c>
       <c r="H7">
-        <v>3.48840061180772</v>
+        <v>1.182342</v>
       </c>
       <c r="I7">
-        <v>0.3815737705641538</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J7">
-        <v>0.3815737705641538</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.147926469260478</v>
+        <v>1.360379666666667</v>
       </c>
       <c r="N7">
-        <v>0.147926469260478</v>
+        <v>4.081138999999999</v>
       </c>
       <c r="O7">
-        <v>0.03313628864614823</v>
+        <v>0.2768425718226325</v>
       </c>
       <c r="P7">
-        <v>0.03313628864614823</v>
+        <v>0.2768425718226325</v>
       </c>
       <c r="Q7">
-        <v>0.5160267858708073</v>
+        <v>0.5361446719486667</v>
       </c>
       <c r="R7">
-        <v>0.5160267858708073</v>
+        <v>4.825302047537999</v>
       </c>
       <c r="S7">
-        <v>0.01264393860121294</v>
+        <v>0.01063296465255735</v>
       </c>
       <c r="T7">
-        <v>0.01264393860121294</v>
+        <v>0.01063296465255735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H8">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I8">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J8">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.557248148624115</v>
+        <v>0.1544616666666667</v>
       </c>
       <c r="N8">
-        <v>0.557248148624115</v>
+        <v>0.463385</v>
       </c>
       <c r="O8">
-        <v>0.1248264464950207</v>
+        <v>0.03143355204123913</v>
       </c>
       <c r="P8">
-        <v>0.1248264464950207</v>
+        <v>0.03143355204123912</v>
       </c>
       <c r="Q8">
-        <v>1.943904782589082</v>
+        <v>0.5473282739816667</v>
       </c>
       <c r="R8">
-        <v>1.943904782589082</v>
+        <v>4.925954465835001</v>
       </c>
       <c r="S8">
-        <v>0.04763049785522964</v>
+        <v>0.01085476084177052</v>
       </c>
       <c r="T8">
-        <v>0.04763049785522964</v>
+        <v>0.01085476084177052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H9">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I9">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J9">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.42267520685376</v>
+        <v>0.1656826666666667</v>
       </c>
       <c r="N9">
-        <v>1.42267520685376</v>
+        <v>0.497048</v>
       </c>
       <c r="O9">
-        <v>0.3186865510932597</v>
+        <v>0.03371706933757852</v>
       </c>
       <c r="P9">
-        <v>0.3186865510932597</v>
+        <v>0.03371706933757852</v>
       </c>
       <c r="Q9">
-        <v>4.962861061992331</v>
+        <v>0.5870894049786667</v>
       </c>
       <c r="R9">
-        <v>4.962861061992331</v>
+        <v>5.283804644808</v>
       </c>
       <c r="S9">
-        <v>0.1216024289287409</v>
+        <v>0.01164331423520475</v>
       </c>
       <c r="T9">
-        <v>0.1216024289287409</v>
+        <v>0.01164331423520475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H10">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I10">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J10">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.979100988134182</v>
+        <v>0.7030826666666666</v>
       </c>
       <c r="N10">
-        <v>0.979100988134182</v>
+        <v>2.109248</v>
       </c>
       <c r="O10">
-        <v>0.2193236485582186</v>
+        <v>0.1430800668469621</v>
       </c>
       <c r="P10">
-        <v>0.2193236485582186</v>
+        <v>0.1430800668469621</v>
       </c>
       <c r="Q10">
-        <v>3.415496486028823</v>
+        <v>2.491343196778667</v>
       </c>
       <c r="R10">
-        <v>3.415496486028823</v>
+        <v>22.422088771008</v>
       </c>
       <c r="S10">
-        <v>0.08368815155424679</v>
+        <v>0.04940898517643598</v>
       </c>
       <c r="T10">
-        <v>0.08368815155424679</v>
+        <v>0.04940898517643598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H11">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I11">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J11">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.357232573509</v>
+        <v>1.423981</v>
       </c>
       <c r="N11">
-        <v>1.357232573509</v>
+        <v>4.271942999999999</v>
       </c>
       <c r="O11">
-        <v>0.3040270652073528</v>
+        <v>0.2897856913963705</v>
       </c>
       <c r="P11">
-        <v>0.3040270652073528</v>
+        <v>0.2897856913963705</v>
       </c>
       <c r="Q11">
-        <v>4.734570939794162</v>
+        <v>5.045815442316999</v>
       </c>
       <c r="R11">
-        <v>4.734570939794162</v>
+        <v>45.41233898085299</v>
       </c>
       <c r="S11">
-        <v>0.1160087536247235</v>
+        <v>0.1000699625466419</v>
       </c>
       <c r="T11">
-        <v>0.1160087536247235</v>
+        <v>0.1000699625466419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.29239797742863</v>
+        <v>3.543457</v>
       </c>
       <c r="H12">
-        <v>5.29239797742863</v>
+        <v>10.630371</v>
       </c>
       <c r="I12">
-        <v>0.5789014727087356</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J12">
-        <v>0.5789014727087356</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.147926469260478</v>
+        <v>1.106323</v>
       </c>
       <c r="N12">
-        <v>0.147926469260478</v>
+        <v>3.318969</v>
       </c>
       <c r="O12">
-        <v>0.03313628864614823</v>
+        <v>0.2251410485552173</v>
       </c>
       <c r="P12">
-        <v>0.03313628864614823</v>
+        <v>0.2251410485552173</v>
       </c>
       <c r="Q12">
-        <v>0.7828857467223121</v>
+        <v>3.920207978611</v>
       </c>
       <c r="R12">
-        <v>0.7828857467223121</v>
+        <v>35.281871807499</v>
       </c>
       <c r="S12">
-        <v>0.01918264629735696</v>
+        <v>0.0777466140169627</v>
       </c>
       <c r="T12">
-        <v>0.01918264629735696</v>
+        <v>0.0777466140169627</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.29239797742863</v>
+        <v>3.543457</v>
       </c>
       <c r="H13">
-        <v>5.29239797742863</v>
+        <v>10.630371</v>
       </c>
       <c r="I13">
-        <v>0.5789014727087356</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J13">
-        <v>0.5789014727087356</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.557248148624115</v>
+        <v>1.360379666666667</v>
       </c>
       <c r="N13">
-        <v>0.557248148624115</v>
+        <v>4.081138999999999</v>
       </c>
       <c r="O13">
-        <v>0.1248264464950207</v>
+        <v>0.2768425718226325</v>
       </c>
       <c r="P13">
-        <v>0.1248264464950207</v>
+        <v>0.2768425718226325</v>
       </c>
       <c r="Q13">
-        <v>2.949178974704115</v>
+        <v>4.820446852507667</v>
       </c>
       <c r="R13">
-        <v>2.949178974704115</v>
+        <v>43.38402167256899</v>
       </c>
       <c r="S13">
-        <v>0.07226221370896567</v>
+        <v>0.09560039234550642</v>
       </c>
       <c r="T13">
-        <v>0.07226221370896567</v>
+        <v>0.09560039234550642</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H14">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I14">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J14">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.42267520685376</v>
+        <v>0.1544616666666667</v>
       </c>
       <c r="N14">
-        <v>1.42267520685376</v>
+        <v>0.463385</v>
       </c>
       <c r="O14">
-        <v>0.3186865510932597</v>
+        <v>0.03143355204123913</v>
       </c>
       <c r="P14">
-        <v>0.3186865510932597</v>
+        <v>0.03143355204123912</v>
       </c>
       <c r="Q14">
-        <v>7.529363387290697</v>
+        <v>0.002428394836111111</v>
       </c>
       <c r="R14">
-        <v>7.529363387290697</v>
+        <v>0.021855553525</v>
       </c>
       <c r="S14">
-        <v>0.1844881137603557</v>
+        <v>4.816057643727643E-05</v>
       </c>
       <c r="T14">
-        <v>0.1844881137603557</v>
+        <v>4.816057643727642E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H15">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I15">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J15">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.979100988134182</v>
+        <v>0.1656826666666667</v>
       </c>
       <c r="N15">
-        <v>0.979100988134182</v>
+        <v>0.497048</v>
       </c>
       <c r="O15">
-        <v>0.2193236485582186</v>
+        <v>0.03371706933757852</v>
       </c>
       <c r="P15">
-        <v>0.2193236485582186</v>
+        <v>0.03371706933757852</v>
       </c>
       <c r="Q15">
-        <v>5.181792089299718</v>
+        <v>0.002604807657777778</v>
       </c>
       <c r="R15">
-        <v>5.181792089299718</v>
+        <v>0.02344326892</v>
       </c>
       <c r="S15">
-        <v>0.1269667831502059</v>
+        <v>5.165924273982836E-05</v>
       </c>
       <c r="T15">
-        <v>0.1269667831502059</v>
+        <v>5.165924273982836E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1408,49 +1408,607 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H16">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I16">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J16">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.357232573509</v>
+        <v>0.7030826666666666</v>
       </c>
       <c r="N16">
-        <v>1.357232573509</v>
+        <v>2.109248</v>
       </c>
       <c r="O16">
-        <v>0.3040270652073528</v>
+        <v>0.1430800668469621</v>
       </c>
       <c r="P16">
-        <v>0.3040270652073528</v>
+        <v>0.1430800668469621</v>
       </c>
       <c r="Q16">
-        <v>7.183014926939286</v>
+        <v>0.01105363132444444</v>
       </c>
       <c r="R16">
-        <v>7.183014926939286</v>
+        <v>0.09948268192</v>
       </c>
       <c r="S16">
-        <v>0.1760017157918513</v>
+        <v>0.0002192185753297418</v>
       </c>
       <c r="T16">
-        <v>0.1760017157918513</v>
+        <v>0.0002192185753297418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.047165</v>
+      </c>
+      <c r="I17">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="J17">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.423981</v>
+      </c>
+      <c r="N17">
+        <v>4.271942999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2897856913963705</v>
+      </c>
+      <c r="P17">
+        <v>0.2897856913963705</v>
+      </c>
+      <c r="Q17">
+        <v>0.02238735462166666</v>
+      </c>
+      <c r="R17">
+        <v>0.201486191595</v>
+      </c>
+      <c r="S17">
+        <v>0.0004439920096403377</v>
+      </c>
+      <c r="T17">
+        <v>0.0004439920096403377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.047165</v>
+      </c>
+      <c r="I18">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="J18">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.106323</v>
+      </c>
+      <c r="N18">
+        <v>3.318969</v>
+      </c>
+      <c r="O18">
+        <v>0.2251410485552173</v>
+      </c>
+      <c r="P18">
+        <v>0.2251410485552173</v>
+      </c>
+      <c r="Q18">
+        <v>0.01739324143166666</v>
+      </c>
+      <c r="R18">
+        <v>0.156539172885</v>
+      </c>
+      <c r="S18">
+        <v>0.0003449474200016204</v>
+      </c>
+      <c r="T18">
+        <v>0.0003449474200016204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.047165</v>
+      </c>
+      <c r="I19">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="J19">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.360379666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.081138999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2768425718226325</v>
+      </c>
+      <c r="P19">
+        <v>0.2768425718226325</v>
+      </c>
+      <c r="Q19">
+        <v>0.02138743565944444</v>
+      </c>
+      <c r="R19">
+        <v>0.192486920935</v>
+      </c>
+      <c r="S19">
+        <v>0.0004241613491171484</v>
+      </c>
+      <c r="T19">
+        <v>0.0004241613491171484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H20">
+        <v>18.923879</v>
+      </c>
+      <c r="I20">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J20">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1544616666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.463385</v>
+      </c>
+      <c r="O20">
+        <v>0.03143355204123913</v>
+      </c>
+      <c r="P20">
+        <v>0.03143355204123912</v>
+      </c>
+      <c r="Q20">
+        <v>0.9743379633794446</v>
+      </c>
+      <c r="R20">
+        <v>8.769041670415001</v>
+      </c>
+      <c r="S20">
+        <v>0.01932333130646179</v>
+      </c>
+      <c r="T20">
+        <v>0.01932333130646179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H21">
+        <v>18.923879</v>
+      </c>
+      <c r="I21">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J21">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1656826666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.497048</v>
+      </c>
+      <c r="O21">
+        <v>0.03371706933757852</v>
+      </c>
+      <c r="P21">
+        <v>0.03371706933757852</v>
+      </c>
+      <c r="Q21">
+        <v>1.045119578799111</v>
+      </c>
+      <c r="R21">
+        <v>9.406076209191999</v>
+      </c>
+      <c r="S21">
+        <v>0.02072709125071855</v>
+      </c>
+      <c r="T21">
+        <v>0.02072709125071855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H22">
+        <v>18.923879</v>
+      </c>
+      <c r="I22">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J22">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7030826666666666</v>
+      </c>
+      <c r="N22">
+        <v>2.109248</v>
+      </c>
+      <c r="O22">
+        <v>0.1430800668469621</v>
+      </c>
+      <c r="P22">
+        <v>0.1430800668469621</v>
+      </c>
+      <c r="Q22">
+        <v>4.435017103665778</v>
+      </c>
+      <c r="R22">
+        <v>39.915153932992</v>
+      </c>
+      <c r="S22">
+        <v>0.0879564463922913</v>
+      </c>
+      <c r="T22">
+        <v>0.0879564463922913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H23">
+        <v>18.923879</v>
+      </c>
+      <c r="I23">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J23">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.423981</v>
+      </c>
+      <c r="N23">
+        <v>4.271942999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2897856913963705</v>
+      </c>
+      <c r="P23">
+        <v>0.2897856913963705</v>
+      </c>
+      <c r="Q23">
+        <v>8.982414714099665</v>
+      </c>
+      <c r="R23">
+        <v>80.84173242689698</v>
+      </c>
+      <c r="S23">
+        <v>0.1781416530775063</v>
+      </c>
+      <c r="T23">
+        <v>0.1781416530775063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H24">
+        <v>18.923879</v>
+      </c>
+      <c r="I24">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J24">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.106323</v>
+      </c>
+      <c r="N24">
+        <v>3.318969</v>
+      </c>
+      <c r="O24">
+        <v>0.2251410485552173</v>
+      </c>
+      <c r="P24">
+        <v>0.2251410485552173</v>
+      </c>
+      <c r="Q24">
+        <v>6.978640862305665</v>
+      </c>
+      <c r="R24">
+        <v>62.807767760751</v>
+      </c>
+      <c r="S24">
+        <v>0.1384022736663383</v>
+      </c>
+      <c r="T24">
+        <v>0.1384022736663383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H25">
+        <v>18.923879</v>
+      </c>
+      <c r="I25">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J25">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.360379666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.081138999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2768425718226325</v>
+      </c>
+      <c r="P25">
+        <v>0.2768425718226325</v>
+      </c>
+      <c r="Q25">
+        <v>8.581220068686777</v>
+      </c>
+      <c r="R25">
+        <v>77.23098061818099</v>
+      </c>
+      <c r="S25">
+        <v>0.1701850534754516</v>
+      </c>
+      <c r="T25">
+        <v>0.1701850534754516</v>
       </c>
     </row>
   </sheetData>
